--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Slit1</t>
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H2">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I2">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J2">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N2">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q2">
-        <v>0.0705884696093191</v>
+        <v>0.039399437538</v>
       </c>
       <c r="R2">
-        <v>0.0705884696093191</v>
+        <v>0.354594937842</v>
       </c>
       <c r="S2">
-        <v>0.000977492479328026</v>
+        <v>0.0003626236487320458</v>
       </c>
       <c r="T2">
-        <v>0.000977492479328026</v>
+        <v>0.0003626236487320457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H3">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I3">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J3">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q3">
-        <v>2.034211750398716</v>
+        <v>0.7994308395060001</v>
       </c>
       <c r="R3">
-        <v>2.034211750398716</v>
+        <v>7.194877555554001</v>
       </c>
       <c r="S3">
-        <v>0.02816928456418797</v>
+        <v>0.007357783411273129</v>
       </c>
       <c r="T3">
-        <v>0.02816928456418797</v>
+        <v>0.007357783411273129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H4">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I4">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J4">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N4">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q4">
-        <v>0.2669393210550526</v>
+        <v>0.185299880052</v>
       </c>
       <c r="R4">
-        <v>0.2669393210550526</v>
+        <v>1.667698920468</v>
       </c>
       <c r="S4">
-        <v>0.00369651276210407</v>
+        <v>0.001705458829184027</v>
       </c>
       <c r="T4">
-        <v>0.00369651276210407</v>
+        <v>0.001705458829184027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H5">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I5">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J5">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N5">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q5">
-        <v>0.2569617694922037</v>
+        <v>0.108028986819</v>
       </c>
       <c r="R5">
-        <v>0.2569617694922037</v>
+        <v>0.972260881371</v>
       </c>
       <c r="S5">
-        <v>0.003558345981201019</v>
+        <v>0.0009942747363169695</v>
       </c>
       <c r="T5">
-        <v>0.003558345981201019</v>
+        <v>0.0009942747363169695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H6">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I6">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J6">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N6">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q6">
-        <v>0.7480120325635836</v>
+        <v>0.297025745415</v>
       </c>
       <c r="R6">
-        <v>0.7480120325635836</v>
+        <v>2.673231708735</v>
       </c>
       <c r="S6">
-        <v>0.01035829421326969</v>
+        <v>0.002733758812314521</v>
       </c>
       <c r="T6">
-        <v>0.01035829421326969</v>
+        <v>0.002733758812314521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H7">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I7">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J7">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N7">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q7">
-        <v>10.9438867785672</v>
+        <v>4.966004710131</v>
       </c>
       <c r="R7">
-        <v>10.9438867785672</v>
+        <v>44.694042391179</v>
       </c>
       <c r="S7">
-        <v>0.1515483630665733</v>
+        <v>0.04570600140855819</v>
       </c>
       <c r="T7">
-        <v>0.1515483630665733</v>
+        <v>0.04570600140855819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H8">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I8">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J8">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N8">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q8">
-        <v>0.117474689393792</v>
+        <v>0.1019077223626667</v>
       </c>
       <c r="R8">
-        <v>0.117474689393792</v>
+        <v>0.9171695012640001</v>
       </c>
       <c r="S8">
-        <v>0.001626761793099812</v>
+        <v>0.0009379359814840229</v>
       </c>
       <c r="T8">
-        <v>0.001626761793099812</v>
+        <v>0.0009379359814840228</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H9">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I9">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J9">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q9">
-        <v>3.385374337507133</v>
+        <v>2.067749722618667</v>
       </c>
       <c r="R9">
-        <v>3.385374337507133</v>
+        <v>18.609747503568</v>
       </c>
       <c r="S9">
-        <v>0.04687986540774138</v>
+        <v>0.01903110795319031</v>
       </c>
       <c r="T9">
-        <v>0.04687986540774138</v>
+        <v>0.01903110795319031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H10">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I10">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J10">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N10">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q10">
-        <v>0.44424555457131</v>
+        <v>0.4792832058062223</v>
       </c>
       <c r="R10">
-        <v>0.44424555457131</v>
+        <v>4.313548852256001</v>
       </c>
       <c r="S10">
-        <v>0.006151807667339406</v>
+        <v>0.004411215888496332</v>
       </c>
       <c r="T10">
-        <v>0.006151807667339406</v>
+        <v>0.004411215888496331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H11">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I11">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J11">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N11">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q11">
-        <v>0.4276407212714324</v>
+        <v>0.2794199278924445</v>
       </c>
       <c r="R11">
-        <v>0.4276407212714324</v>
+        <v>2.514779351032</v>
       </c>
       <c r="S11">
-        <v>0.005921867851942372</v>
+        <v>0.002571718788702962</v>
       </c>
       <c r="T11">
-        <v>0.005921867851942372</v>
+        <v>0.002571718788702962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H12">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I12">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J12">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N12">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q12">
-        <v>1.244856017910113</v>
+        <v>0.7682652111244446</v>
       </c>
       <c r="R12">
-        <v>1.244856017910113</v>
+        <v>6.91438690012</v>
       </c>
       <c r="S12">
-        <v>0.01723847254499371</v>
+        <v>0.007070941908324092</v>
       </c>
       <c r="T12">
-        <v>0.01723847254499371</v>
+        <v>0.007070941908324091</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H13">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I13">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J13">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N13">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q13">
-        <v>18.21302696018898</v>
+        <v>12.84470695206311</v>
       </c>
       <c r="R13">
-        <v>18.21302696018898</v>
+        <v>115.602362568568</v>
       </c>
       <c r="S13">
-        <v>0.2522097019232296</v>
+        <v>0.1182198222337222</v>
       </c>
       <c r="T13">
-        <v>0.2522097019232296</v>
+        <v>0.1182198222337222</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H14">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I14">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J14">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N14">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q14">
-        <v>0.06840022758699628</v>
+        <v>0.1950796339993333</v>
       </c>
       <c r="R14">
-        <v>0.06840022758699628</v>
+        <v>1.755716705994</v>
       </c>
       <c r="S14">
-        <v>0.0009471902198852501</v>
+        <v>0.001795469506536038</v>
       </c>
       <c r="T14">
-        <v>0.0009471902198852501</v>
+        <v>0.001795469506536038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H15">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I15">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J15">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q15">
-        <v>1.971151201570247</v>
+        <v>3.958246242175333</v>
       </c>
       <c r="R15">
-        <v>1.971151201570247</v>
+        <v>35.62421617957801</v>
       </c>
       <c r="S15">
-        <v>0.02729603695642304</v>
+        <v>0.03643081690019451</v>
       </c>
       <c r="T15">
-        <v>0.02729603695642304</v>
+        <v>0.03643081690019451</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H16">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I16">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J16">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N16">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q16">
-        <v>0.2586642041276576</v>
+        <v>0.9174809347417778</v>
       </c>
       <c r="R16">
-        <v>0.2586642041276576</v>
+        <v>8.257328412676001</v>
       </c>
       <c r="S16">
-        <v>0.003581920894524881</v>
+        <v>0.008444290197728544</v>
       </c>
       <c r="T16">
-        <v>0.003581920894524881</v>
+        <v>0.008444290197728545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H17">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I17">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J17">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N17">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q17">
-        <v>0.2489959565875556</v>
+        <v>0.5348872097385555</v>
       </c>
       <c r="R17">
-        <v>0.2489959565875556</v>
+        <v>4.813984887647</v>
       </c>
       <c r="S17">
-        <v>0.003448037282781532</v>
+        <v>0.004922982757518421</v>
       </c>
       <c r="T17">
-        <v>0.003448037282781532</v>
+        <v>0.004922982757518422</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H18">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I18">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J18">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N18">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q18">
-        <v>0.7248236652294001</v>
+        <v>1.470672611710556</v>
       </c>
       <c r="R18">
-        <v>0.7248236652294001</v>
+        <v>13.236053505395</v>
       </c>
       <c r="S18">
-        <v>0.01003718717124838</v>
+        <v>0.0135357431951766</v>
       </c>
       <c r="T18">
-        <v>0.01003718717124838</v>
+        <v>0.0135357431951766</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H19">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I19">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J19">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N19">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O19">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P19">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q19">
-        <v>10.60462637146465</v>
+        <v>24.58833023585589</v>
       </c>
       <c r="R19">
-        <v>10.60462637146465</v>
+        <v>221.294972122703</v>
       </c>
       <c r="S19">
-        <v>0.1468503649613313</v>
+        <v>0.2263055155991741</v>
       </c>
       <c r="T19">
-        <v>0.1468503649613313</v>
+        <v>0.2263055155991741</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.461027515811835</v>
+        <v>0.33287</v>
       </c>
       <c r="H20">
-        <v>0.461027515811835</v>
+        <v>0.99861</v>
       </c>
       <c r="I20">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="J20">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N20">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O20">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P20">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q20">
-        <v>0.09948980385760535</v>
+        <v>0.10366437262</v>
       </c>
       <c r="R20">
-        <v>0.09948980385760535</v>
+        <v>0.9329793535799999</v>
       </c>
       <c r="S20">
-        <v>0.001377711339810527</v>
+        <v>0.0009541037992414699</v>
       </c>
       <c r="T20">
-        <v>0.001377711339810527</v>
+        <v>0.0009541037992414698</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.461027515811835</v>
+        <v>0.33287</v>
       </c>
       <c r="H21">
-        <v>0.461027515811835</v>
+        <v>0.99861</v>
       </c>
       <c r="I21">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="J21">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N21">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O21">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P21">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q21">
-        <v>2.867087630205339</v>
+        <v>2.10339288094</v>
       </c>
       <c r="R21">
-        <v>2.867087630205339</v>
+        <v>18.93053592846</v>
       </c>
       <c r="S21">
-        <v>0.03970275331950444</v>
+        <v>0.0193591596445463</v>
       </c>
       <c r="T21">
-        <v>0.03970275331950444</v>
+        <v>0.0193591596445463</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.461027515811835</v>
+        <v>0.33287</v>
       </c>
       <c r="H22">
-        <v>0.461027515811835</v>
+        <v>0.99861</v>
       </c>
       <c r="I22">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="J22">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N22">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O22">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P22">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q22">
-        <v>0.3762334109329291</v>
+        <v>0.4875449248133333</v>
       </c>
       <c r="R22">
-        <v>0.3762334109329291</v>
+        <v>4.38790432332</v>
       </c>
       <c r="S22">
-        <v>0.005209991542447558</v>
+        <v>0.00448725491032927</v>
       </c>
       <c r="T22">
-        <v>0.005209991542447558</v>
+        <v>0.00448725491032927</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.461027515811835</v>
+        <v>0.33287</v>
       </c>
       <c r="H23">
-        <v>0.461027515811835</v>
+        <v>0.99861</v>
       </c>
       <c r="I23">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="J23">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N23">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O23">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P23">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q23">
-        <v>0.3621707084340505</v>
+        <v>0.2842364724766667</v>
       </c>
       <c r="R23">
-        <v>0.3621707084340505</v>
+        <v>2.55812825229</v>
       </c>
       <c r="S23">
-        <v>0.005015254554838091</v>
+        <v>0.002616049192397853</v>
       </c>
       <c r="T23">
-        <v>0.005015254554838091</v>
+        <v>0.002616049192397853</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.461027515811835</v>
+        <v>0.33287</v>
       </c>
       <c r="H24">
-        <v>0.461027515811835</v>
+        <v>0.99861</v>
       </c>
       <c r="I24">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="J24">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N24">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O24">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P24">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q24">
-        <v>1.054273747748949</v>
+        <v>0.7815083025166667</v>
       </c>
       <c r="R24">
-        <v>1.054273747748949</v>
+        <v>7.03357472265</v>
       </c>
       <c r="S24">
-        <v>0.0145993342153648</v>
+        <v>0.007192828372223681</v>
       </c>
       <c r="T24">
-        <v>0.0145993342153648</v>
+        <v>0.007192828372223679</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.33287</v>
+      </c>
+      <c r="H25">
+        <v>0.99861</v>
+      </c>
+      <c r="I25">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="J25">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>39.25292033333333</v>
+      </c>
+      <c r="N25">
+        <v>117.758761</v>
+      </c>
+      <c r="O25">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="P25">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="Q25">
+        <v>13.06611959135667</v>
+      </c>
+      <c r="R25">
+        <v>117.59507632221</v>
+      </c>
+      <c r="S25">
+        <v>0.1202576548565504</v>
+      </c>
+      <c r="T25">
+        <v>0.1202576548565504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.506563</v>
+      </c>
+      <c r="H26">
+        <v>1.519689</v>
+      </c>
+      <c r="I26">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J26">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.311426</v>
+      </c>
+      <c r="N26">
+        <v>0.9342779999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.006160792721660773</v>
+      </c>
+      <c r="P26">
+        <v>0.006160792721660772</v>
+      </c>
+      <c r="Q26">
+        <v>0.157756888838</v>
+      </c>
+      <c r="R26">
+        <v>1.419811999542</v>
+      </c>
+      <c r="S26">
+        <v>0.001451959271953485</v>
+      </c>
+      <c r="T26">
+        <v>0.001451959271953485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.506563</v>
+      </c>
+      <c r="H27">
+        <v>1.519689</v>
+      </c>
+      <c r="I27">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J27">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>6.318962</v>
+      </c>
+      <c r="N27">
+        <v>18.956886</v>
+      </c>
+      <c r="O27">
+        <v>0.1250050255856961</v>
+      </c>
+      <c r="P27">
+        <v>0.1250050255856961</v>
+      </c>
+      <c r="Q27">
+        <v>3.200952347606</v>
+      </c>
+      <c r="R27">
+        <v>28.808571128454</v>
+      </c>
+      <c r="S27">
+        <v>0.0294608525461</v>
+      </c>
+      <c r="T27">
+        <v>0.0294608525461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.506563</v>
+      </c>
+      <c r="H28">
+        <v>1.519689</v>
+      </c>
+      <c r="I28">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J28">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.464670666666667</v>
+      </c>
+      <c r="N28">
+        <v>4.394012</v>
+      </c>
+      <c r="O28">
+        <v>0.02897488450813366</v>
+      </c>
+      <c r="P28">
+        <v>0.02897488450813366</v>
+      </c>
+      <c r="Q28">
+        <v>0.7419479669186666</v>
+      </c>
+      <c r="R28">
+        <v>6.677531702268</v>
+      </c>
+      <c r="S28">
+        <v>0.006828723853579854</v>
+      </c>
+      <c r="T28">
+        <v>0.006828723853579854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.506563</v>
+      </c>
+      <c r="H29">
+        <v>1.519689</v>
+      </c>
+      <c r="I29">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J29">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8538963333333333</v>
+      </c>
+      <c r="N29">
+        <v>2.561689</v>
+      </c>
+      <c r="O29">
+        <v>0.01689222581111667</v>
+      </c>
+      <c r="P29">
+        <v>0.01689222581111667</v>
+      </c>
+      <c r="Q29">
+        <v>0.4325522883023333</v>
+      </c>
+      <c r="R29">
+        <v>3.892970594721</v>
+      </c>
+      <c r="S29">
+        <v>0.003981114930899852</v>
+      </c>
+      <c r="T29">
+        <v>0.003981114930899853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.506563</v>
+      </c>
+      <c r="H30">
+        <v>1.519689</v>
+      </c>
+      <c r="I30">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J30">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.347788333333333</v>
+      </c>
+      <c r="N30">
+        <v>7.043365</v>
+      </c>
+      <c r="O30">
+        <v>0.04644518208498994</v>
+      </c>
+      <c r="P30">
+        <v>0.04644518208498993</v>
+      </c>
+      <c r="Q30">
+        <v>1.189302701498333</v>
+      </c>
+      <c r="R30">
+        <v>10.703724313485</v>
+      </c>
+      <c r="S30">
+        <v>0.01094607720346905</v>
+      </c>
+      <c r="T30">
+        <v>0.01094607720346905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.461027515811835</v>
-      </c>
-      <c r="H25">
-        <v>0.461027515811835</v>
-      </c>
-      <c r="I25">
-        <v>0.2795024922587954</v>
-      </c>
-      <c r="J25">
-        <v>0.2795024922587954</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>33.4571969799076</v>
-      </c>
-      <c r="N25">
-        <v>33.4571969799076</v>
-      </c>
-      <c r="O25">
-        <v>0.7642058772379641</v>
-      </c>
-      <c r="P25">
-        <v>0.7642058772379641</v>
-      </c>
-      <c r="Q25">
-        <v>15.42468840967403</v>
-      </c>
-      <c r="R25">
-        <v>15.42468840967403</v>
-      </c>
-      <c r="S25">
-        <v>0.21359744728683</v>
-      </c>
-      <c r="T25">
-        <v>0.21359744728683</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.506563</v>
+      </c>
+      <c r="H31">
+        <v>1.519689</v>
+      </c>
+      <c r="I31">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J31">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>39.25292033333333</v>
+      </c>
+      <c r="N31">
+        <v>117.758761</v>
+      </c>
+      <c r="O31">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="P31">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="Q31">
+        <v>19.88407708281433</v>
+      </c>
+      <c r="R31">
+        <v>178.956693745329</v>
+      </c>
+      <c r="S31">
+        <v>0.1830086172292449</v>
+      </c>
+      <c r="T31">
+        <v>0.1830086172292449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.229809</v>
+      </c>
+      <c r="H32">
+        <v>0.689427</v>
+      </c>
+      <c r="I32">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J32">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.311426</v>
+      </c>
+      <c r="N32">
+        <v>0.9342779999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.006160792721660773</v>
+      </c>
+      <c r="P32">
+        <v>0.006160792721660772</v>
+      </c>
+      <c r="Q32">
+        <v>0.071568497634</v>
+      </c>
+      <c r="R32">
+        <v>0.644116478706</v>
+      </c>
+      <c r="S32">
+        <v>0.0006587005137137109</v>
+      </c>
+      <c r="T32">
+        <v>0.0006587005137137108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.229809</v>
+      </c>
+      <c r="H33">
+        <v>0.689427</v>
+      </c>
+      <c r="I33">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J33">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>6.318962</v>
+      </c>
+      <c r="N33">
+        <v>18.956886</v>
+      </c>
+      <c r="O33">
+        <v>0.1250050255856961</v>
+      </c>
+      <c r="P33">
+        <v>0.1250050255856961</v>
+      </c>
+      <c r="Q33">
+        <v>1.452154338258</v>
+      </c>
+      <c r="R33">
+        <v>13.069389044322</v>
+      </c>
+      <c r="S33">
+        <v>0.01336530513039187</v>
+      </c>
+      <c r="T33">
+        <v>0.01336530513039187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.229809</v>
+      </c>
+      <c r="H34">
+        <v>0.689427</v>
+      </c>
+      <c r="I34">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J34">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.464670666666667</v>
+      </c>
+      <c r="N34">
+        <v>4.394012</v>
+      </c>
+      <c r="O34">
+        <v>0.02897488450813366</v>
+      </c>
+      <c r="P34">
+        <v>0.02897488450813366</v>
+      </c>
+      <c r="Q34">
+        <v>0.336594501236</v>
+      </c>
+      <c r="R34">
+        <v>3.029350511124</v>
+      </c>
+      <c r="S34">
+        <v>0.003097940828815632</v>
+      </c>
+      <c r="T34">
+        <v>0.003097940828815631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.229809</v>
+      </c>
+      <c r="H35">
+        <v>0.689427</v>
+      </c>
+      <c r="I35">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J35">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.8538963333333333</v>
+      </c>
+      <c r="N35">
+        <v>2.561689</v>
+      </c>
+      <c r="O35">
+        <v>0.01689222581111667</v>
+      </c>
+      <c r="P35">
+        <v>0.01689222581111667</v>
+      </c>
+      <c r="Q35">
+        <v>0.196233062467</v>
+      </c>
+      <c r="R35">
+        <v>1.766097562203</v>
+      </c>
+      <c r="S35">
+        <v>0.001806085405280615</v>
+      </c>
+      <c r="T35">
+        <v>0.001806085405280615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.229809</v>
+      </c>
+      <c r="H36">
+        <v>0.689427</v>
+      </c>
+      <c r="I36">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J36">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.347788333333333</v>
+      </c>
+      <c r="N36">
+        <v>7.043365</v>
+      </c>
+      <c r="O36">
+        <v>0.04644518208498994</v>
+      </c>
+      <c r="P36">
+        <v>0.04644518208498993</v>
+      </c>
+      <c r="Q36">
+        <v>0.539542889095</v>
+      </c>
+      <c r="R36">
+        <v>4.855886001855</v>
+      </c>
+      <c r="S36">
+        <v>0.004965832593481995</v>
+      </c>
+      <c r="T36">
+        <v>0.004965832593481994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.229809</v>
+      </c>
+      <c r="H37">
+        <v>0.689427</v>
+      </c>
+      <c r="I37">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J37">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>39.25292033333333</v>
+      </c>
+      <c r="N37">
+        <v>117.758761</v>
+      </c>
+      <c r="O37">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="P37">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="Q37">
+        <v>9.020674368883</v>
+      </c>
+      <c r="R37">
+        <v>81.18606931994699</v>
+      </c>
+      <c r="S37">
+        <v>0.083024277961153</v>
+      </c>
+      <c r="T37">
+        <v>0.083024277961153</v>
       </c>
     </row>
   </sheetData>
